--- a/doc/ue_world_physics.xlsx
+++ b/doc/ue_world_physics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282DBA62-C1EC-4BE8-B9C3-B28BB28C76B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A338C83-1E52-45BD-9649-E6C892F003AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>UCLASS(customConstructor, config=Engine)</t>
   </si>
@@ -104,6 +104,161 @@
   </si>
   <si>
     <t>每帧里面整个场景的物理计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FEndPhysicsTickFunction::ExecuteTick(float DeltaTime, enum ELevelTick TickType, ENamedThreads::Type CurrentThread, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(FEndPhysicsTickFunction_ExecuteTick);</t>
+  </si>
+  <si>
+    <t>FPhysScene* PhysScene = Target-&gt;GetPhysicsScene();</t>
+  </si>
+  <si>
+    <t>if (PhysScene == NULL)</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>FGraphEventArray PhysicsComplete = PhysScene-&gt;GetCompletionEvents();</t>
+  </si>
+  <si>
+    <t>if (!PhysScene-&gt;IsCompletionEventComplete())</t>
+  </si>
+  <si>
+    <t>// don't release the next tick group until the physics has completed and we have run FinishPhysicsSim</t>
+  </si>
+  <si>
+    <t>DECLARE_CYCLE_STAT(TEXT("FSimpleDelegateGraphTask.FinishPhysicsSim"),</t>
+  </si>
+  <si>
+    <t>STAT_FSimpleDelegateGraphTask_FinishPhysicsSim,</t>
+  </si>
+  <si>
+    <t>STATGROUP_TaskGraphTasks);</t>
+  </si>
+  <si>
+    <t>MyCompletionGraphEvent-&gt;DontCompleteUntil(</t>
+  </si>
+  <si>
+    <t>FSimpleDelegateGraphTask::CreateAndDispatchWhenReady(</t>
+  </si>
+  <si>
+    <t>FSimpleDelegateGraphTask::FDelegate::CreateUObject(Target, &amp;UWorld::FinishPhysicsSim),</t>
+  </si>
+  <si>
+    <t>GET_STATID(STAT_FSimpleDelegateGraphTask_FinishPhysicsSim), &amp;PhysicsComplete, ENamedThreads::GameThread</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>// it was already done, so let just do it.</t>
+  </si>
+  <si>
+    <t>Target-&gt;FinishPhysicsSim();</t>
+  </si>
+  <si>
+    <t>#if PHYSICS_INTERFACE_PHYSX</t>
+  </si>
+  <si>
+    <t>#if PHYSX_MEMORY_VALIDATION</t>
+  </si>
+  <si>
+    <t>static int32 Frequency = 0;</t>
+  </si>
+  <si>
+    <t>if (Frequency++ &gt; 10)</t>
+  </si>
+  <si>
+    <t>Frequency = 0;</t>
+  </si>
+  <si>
+    <t>GPhysXAllocator-&gt;ValidateHeaders();</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#endif // WITH_PHYSX </t>
+  </si>
+  <si>
+    <t>!!!如果当前Phys没有完成，则需要强制等待其完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！如果完成了就直接处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上就是等待物理完成，执行完成的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::StartPhysicsSim()</t>
+  </si>
+  <si>
+    <t>FPhysScene* PhysScene = GetPhysicsScene();</t>
+  </si>
+  <si>
+    <t>PhysScene-&gt;StartFrame();</t>
+  </si>
+  <si>
+    <t>本质上就是在监听PhysicsSceneCompletion是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FPhysScene_PhysX::StartFrame()</t>
+  </si>
+  <si>
+    <t>本质上就是在构造PhysicsSceneCompletion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Run the sync scene</t>
+  </si>
+  <si>
+    <t>TickPhysScene(PhysicsSubsceneCompletion);</t>
+  </si>
+  <si>
+    <t>内部调用物理引擎开始计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApexScene-&gt;simulate(AveragedFrameTime, true, Task, SimScratchBuffer.Buffer, SimScratchBuffer.BufferSize);</t>
+  </si>
+  <si>
+    <t>构造SceneCompletionTask的Event，需要等待前者完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用SceneCompletionTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FPhysScene_PhysX::SceneCompletionTask(ENamedThreads::Type CurrentThread, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
+  </si>
+  <si>
+    <t>ProcessPhysScene();</t>
+  </si>
+  <si>
+    <t>第三步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面前的所有Event，最终构造成PhysicsSceneCompletion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +297,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,10 +326,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -447,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z21"/>
+  <dimension ref="B2:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,6 +693,11 @@
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -540,14 +709,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6602B4-9050-4501-868B-5B52F1F67751}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B1:R91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
@@ -593,14 +767,351 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
